--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N2">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q2">
-        <v>42.02275276825751</v>
+        <v>45.49449695865722</v>
       </c>
       <c r="R2">
-        <v>42.02275276825751</v>
+        <v>409.450472627915</v>
       </c>
       <c r="S2">
-        <v>0.004541555866295512</v>
+        <v>0.004324943817329381</v>
       </c>
       <c r="T2">
-        <v>0.004541555866295512</v>
+        <v>0.00432494381732938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N3">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P3">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q3">
-        <v>26.51678889028819</v>
+        <v>28.52558103190411</v>
       </c>
       <c r="R3">
-        <v>26.51678889028819</v>
+        <v>256.730229287137</v>
       </c>
       <c r="S3">
-        <v>0.00286576842797825</v>
+        <v>0.002711790294808071</v>
       </c>
       <c r="T3">
-        <v>0.00286576842797825</v>
+        <v>0.00271179029480807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N4">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q4">
-        <v>61.40647095642679</v>
+        <v>79.48297933753176</v>
       </c>
       <c r="R4">
-        <v>61.40647095642679</v>
+        <v>715.346814037786</v>
       </c>
       <c r="S4">
-        <v>0.006636426698141532</v>
+        <v>0.007556065965102674</v>
       </c>
       <c r="T4">
-        <v>0.006636426698141532</v>
+        <v>0.007556065965102674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N5">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q5">
-        <v>5.053650130326022</v>
+        <v>6.181272013040332</v>
       </c>
       <c r="R5">
-        <v>5.053650130326022</v>
+        <v>55.631448117363</v>
       </c>
       <c r="S5">
-        <v>0.0005461668473304757</v>
+        <v>0.0005876239097736134</v>
       </c>
       <c r="T5">
-        <v>0.0005461668473304757</v>
+        <v>0.0005876239097736134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N6">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q6">
-        <v>2686.466828467671</v>
+        <v>2789.289748222021</v>
       </c>
       <c r="R6">
-        <v>2686.466828467671</v>
+        <v>25103.60773399819</v>
       </c>
       <c r="S6">
-        <v>0.2903365053622011</v>
+        <v>0.2651644101543906</v>
       </c>
       <c r="T6">
-        <v>0.2903365053622011</v>
+        <v>0.2651644101543905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N7">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P7">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q7">
-        <v>1695.188179224869</v>
+        <v>1748.917254908254</v>
       </c>
       <c r="R7">
-        <v>1695.188179224869</v>
+        <v>15740.25529417428</v>
       </c>
       <c r="S7">
-        <v>0.1832053188492902</v>
+        <v>0.1662611826549006</v>
       </c>
       <c r="T7">
-        <v>0.1832053188492902</v>
+        <v>0.1662611826549005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N8">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q8">
-        <v>3925.645903956911</v>
+        <v>4873.140143208733</v>
       </c>
       <c r="R8">
-        <v>3925.645903956911</v>
+        <v>43858.2612888786</v>
       </c>
       <c r="S8">
-        <v>0.424259216963566</v>
+        <v>0.4632660814450357</v>
       </c>
       <c r="T8">
-        <v>0.424259216963566</v>
+        <v>0.4632660814450356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N9">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q9">
-        <v>323.0741097012892</v>
+        <v>378.9767952069686</v>
       </c>
       <c r="R9">
-        <v>323.0741097012892</v>
+        <v>3410.791156862718</v>
       </c>
       <c r="S9">
-        <v>0.03491582586827593</v>
+        <v>0.03602750787268094</v>
       </c>
       <c r="T9">
-        <v>0.03491582586827593</v>
+        <v>0.03602750787268094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N10">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q10">
-        <v>37.58078639050916</v>
+        <v>40.98125322545834</v>
       </c>
       <c r="R10">
-        <v>37.58078639050916</v>
+        <v>368.831279029125</v>
       </c>
       <c r="S10">
-        <v>0.004061495967030922</v>
+        <v>0.003895891362969081</v>
       </c>
       <c r="T10">
-        <v>0.004061495967030922</v>
+        <v>0.00389589136296908</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N11">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P11">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q11">
-        <v>23.71386245312524</v>
+        <v>25.69572449024167</v>
       </c>
       <c r="R11">
-        <v>23.71386245312524</v>
+        <v>231.261520412175</v>
       </c>
       <c r="S11">
-        <v>0.00256284569767326</v>
+        <v>0.002442769393996394</v>
       </c>
       <c r="T11">
-        <v>0.00256284569767326</v>
+        <v>0.002442769393996393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N12">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q12">
-        <v>54.91557111298138</v>
+        <v>71.59793647801668</v>
       </c>
       <c r="R12">
-        <v>54.91557111298138</v>
+        <v>644.3814283021501</v>
       </c>
       <c r="S12">
-        <v>0.005934930905514557</v>
+        <v>0.006806472725383435</v>
       </c>
       <c r="T12">
-        <v>0.005934930905514557</v>
+        <v>0.006806472725383434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N13">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O13">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P13">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q13">
-        <v>4.519459900390198</v>
+        <v>5.568064063925001</v>
       </c>
       <c r="R13">
-        <v>4.519459900390198</v>
+        <v>50.11257657532501</v>
       </c>
       <c r="S13">
-        <v>0.0004884349137310342</v>
+        <v>0.0005293291685288943</v>
       </c>
       <c r="T13">
-        <v>0.0004884349137310342</v>
+        <v>0.0005293291685288943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H14">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N14">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O14">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P14">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q14">
-        <v>114.1893589759547</v>
+        <v>121.1532304499211</v>
       </c>
       <c r="R14">
-        <v>114.1893589759547</v>
+        <v>1090.37907404929</v>
       </c>
       <c r="S14">
-        <v>0.01234087057517805</v>
+        <v>0.01151745705552106</v>
       </c>
       <c r="T14">
-        <v>0.01234087057517805</v>
+        <v>0.01151745705552106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H15">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N15">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P15">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q15">
-        <v>72.05465910767082</v>
+        <v>75.96449072987357</v>
       </c>
       <c r="R15">
-        <v>72.05465910767082</v>
+        <v>683.6804165688621</v>
       </c>
       <c r="S15">
-        <v>0.007787216167607928</v>
+        <v>0.007221580113685003</v>
       </c>
       <c r="T15">
-        <v>0.007787216167607928</v>
+        <v>0.007221580113685</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H16">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N16">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O16">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P16">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q16">
-        <v>166.8611667150598</v>
+        <v>211.6655937810929</v>
       </c>
       <c r="R16">
-        <v>166.8611667150598</v>
+        <v>1904.990344029836</v>
       </c>
       <c r="S16">
-        <v>0.01803330959137249</v>
+        <v>0.02012203370435749</v>
       </c>
       <c r="T16">
-        <v>0.01803330959137249</v>
+        <v>0.02012203370435749</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H17">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N17">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O17">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P17">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q17">
-        <v>13.7323956869998</v>
+        <v>16.46091555534867</v>
       </c>
       <c r="R17">
-        <v>13.7323956869998</v>
+        <v>148.148239998138</v>
       </c>
       <c r="S17">
-        <v>0.001484111298812736</v>
+        <v>0.001564860361537395</v>
       </c>
       <c r="T17">
-        <v>0.001484111298812736</v>
+        <v>0.001564860361537395</v>
       </c>
     </row>
   </sheetData>
